--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/821494d98a70297a/Documents/STM32CubeIDE/HID_Devices/Throttle_Extender_with_STM32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D066CA252ABDACC10487B9997F50673EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF7B443-E663-46BA-9C71-D19202D14E1E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D066CA252ABDACC10487B9997F50673EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAB7D90-029B-4250-8015-B823009309D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>TDC_PUSH</t>
     <phoneticPr fontId="5"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>10byte</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndpointDiscripterSize</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -728,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J15"/>
+  <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1030,6 +1034,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/821494d98a70297a/Documents/STM32CubeIDE/HID_Devices/Throttle_Extender_with_STM32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D066CA252ABDACC10487B9997F50673EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAB7D90-029B-4250-8015-B823009309D7}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D066CA252ABDACC10487B9997F50673EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7BE14C9-FF46-45E3-B258-DF321635280D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>TDC_PUSH</t>
     <phoneticPr fontId="5"/>
@@ -103,11 +103,43 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>10byte</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>EndpointDiscripterSize</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC_UP</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC_DOWN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC_RIGHT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC_LEFT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC2_UP</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC2_DOWN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC2_RIGHT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TDC2_LEFT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>11byte</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -211,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -384,6 +416,17 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -410,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -446,6 +489,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - アクセント 2" xfId="3" builtinId="34"/>
@@ -732,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -796,250 +841,276 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="19.5" thickBot="1">
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="3:10">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="19.5" thickBot="1">
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="23" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>6</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="9">
+    <row r="8" spans="3:10">
+      <c r="C8" s="9">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="24" t="s">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="19.5" thickBot="1">
-      <c r="C9" s="3">
+    <row r="10" spans="3:10" ht="19.5" thickBot="1">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>11</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="25" t="s">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E11" s="26">
         <v>2</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F11" s="26">
         <v>3</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G11" s="26">
         <v>4</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H11" s="26">
         <v>5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I11" s="26">
         <v>6</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J11" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="28">
+    <row r="12" spans="3:10">
+      <c r="C12" s="28">
         <v>8</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D12" s="29">
         <v>9</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F12" s="29">
         <v>11</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="30" t="s">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F13" s="31">
         <v>3</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G13" s="31">
         <v>4</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H13" s="31">
         <v>5</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I13" s="31">
         <v>6</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J13" s="32">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="19.5" thickBot="1">
-      <c r="C13" s="33">
+    <row r="14" spans="3:10" ht="19.5" thickBot="1">
+      <c r="C14" s="33">
         <v>8</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D14" s="34">
         <v>9</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E14" s="34">
         <v>10</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F14" s="34">
         <v>11</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" t="s">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
+      <c r="D18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
